--- a/data/ch05/test.xlsx
+++ b/data/ch05/test.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,20 +516,40 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B7">
+        <v>210.5</v>
+      </c>
+      <c r="C7">
+        <v>607.5</v>
+      </c>
+      <c r="D7">
+        <v>280.7</v>
+      </c>
+      <c r="E7">
+        <v>77.5</v>
+      </c>
+      <c r="F7">
+        <v>294.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>247.72</v>
-      </c>
-      <c r="C7">
-        <v>525.86</v>
-      </c>
-      <c r="D7">
-        <v>289.22</v>
-      </c>
-      <c r="E7">
-        <v>87.24000000000001</v>
+      <c r="B8">
+        <v>241.5166666666667</v>
+      </c>
+      <c r="C8">
+        <v>539.4666666666667</v>
+      </c>
+      <c r="D8">
+        <v>287.8</v>
+      </c>
+      <c r="E8">
+        <v>85.61666666666667</v>
       </c>
     </row>
   </sheetData>
